--- a/Desarrollo/PBPMP/01-PLANIFICACION/PBPMP-CA.xlsx
+++ b/Desarrollo/PBPMP/01-PLANIFICACION/PBPMP-CA.xlsx
@@ -1,14 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elvis\Documents\GitHub\PetFinder\Desarrollo\PBPMP\01-PLANIFICACION\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343B1586-FB76-4588-A80E-218226289981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Roles" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Hoja 1" sheetId="3" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Roles" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja 1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -24,9 +46,6 @@
     <t>Grupo: 1</t>
   </si>
   <si>
-    <t>Proyecto: Plataforma de encuentro de mascotas perdidas "PetFinder"</t>
-  </si>
-  <si>
     <t>Enfoque de desarrollo: Tradicional</t>
   </si>
   <si>
@@ -637,93 +656,105 @@
   <si>
     <t>Examen Final</t>
   </si>
+  <si>
+    <t>Proyecto: Plataforma de publicación de mascotas perdidas "PetFinder"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="d.m"/>
+    <numFmt numFmtId="164" formatCode="d\.m"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="16">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Montserrat"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Montserrat"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -734,7 +765,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -804,7 +835,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -818,19 +855,23 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -840,6 +881,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -848,188 +890,122 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="14" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1219,1252 +1195,1260 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1018"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="69.0"/>
-    <col customWidth="1" min="3" max="3" width="64.86"/>
-    <col customWidth="1" min="4" max="4" width="23.57"/>
-    <col customWidth="1" min="5" max="5" width="86.14"/>
-    <col customWidth="1" min="6" max="8" width="13.71"/>
-    <col customWidth="1" min="9" max="26" width="10.71"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="69" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="86.140625" customWidth="1"/>
+    <col min="6" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:8">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:8">
+      <c r="B4" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:8">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="1:8">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="9">
+        <v>45160</v>
+      </c>
+      <c r="G10" s="9">
+        <v>45173</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="12">
-        <v>45160.0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>45173.0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="9">
+        <v>45161</v>
+      </c>
+      <c r="G11" s="9">
+        <v>45173</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="12">
-        <v>45161.0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>45173.0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="13"/>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="9">
+        <v>45161</v>
+      </c>
+      <c r="G12" s="9">
+        <v>45173</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="12">
-        <v>45161.0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>45173.0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="9">
+        <v>45159</v>
+      </c>
+      <c r="G13" s="9">
+        <v>45173</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="12">
-        <v>45159.0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>45173.0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="9">
+        <v>45159</v>
+      </c>
+      <c r="G14" s="9">
+        <v>45173</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="12">
-        <v>45159.0</v>
-      </c>
-      <c r="G14" s="12">
-        <v>45173.0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="9">
+        <v>45173</v>
+      </c>
+      <c r="G16" s="11">
+        <v>45179</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="12">
-        <v>45173.0</v>
-      </c>
-      <c r="G16" s="14">
-        <v>45179.0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="15" t="s">
+      <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="9">
+        <v>45173</v>
+      </c>
+      <c r="G17" s="11">
+        <v>45179</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="12">
-        <v>45173.0</v>
-      </c>
-      <c r="G17" s="14">
-        <v>45179.0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="15" t="s">
+      <c r="C18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="E18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="9">
+        <v>45173</v>
+      </c>
+      <c r="G18" s="11">
+        <v>45179</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="12">
-        <v>45173.0</v>
-      </c>
-      <c r="G18" s="14">
-        <v>45179.0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="9">
+        <v>45173</v>
+      </c>
+      <c r="G19" s="11">
+        <v>45179</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="12">
-        <v>45173.0</v>
-      </c>
-      <c r="G19" s="14">
-        <v>45179.0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="15" t="s">
+      <c r="C20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="E20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="9">
+        <v>45173</v>
+      </c>
+      <c r="G20" s="11">
+        <v>45179</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="12">
-        <v>45173.0</v>
-      </c>
-      <c r="G20" s="14">
-        <v>45179.0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="15" t="s">
+      <c r="C21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="E21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="9">
+        <v>45173</v>
+      </c>
+      <c r="G21" s="11">
+        <v>45179</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="12">
-        <v>45173.0</v>
-      </c>
-      <c r="G21" s="14">
-        <v>45179.0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="15" t="s">
+      <c r="C22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="9">
+        <v>45173</v>
+      </c>
+      <c r="G22" s="9">
+        <v>45179</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="12">
-        <v>45173.0</v>
-      </c>
-      <c r="G22" s="12">
-        <v>45179.0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="E23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="9">
+        <v>45178</v>
+      </c>
+      <c r="G23" s="11">
+        <v>45179</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="12">
-        <v>45178.0</v>
-      </c>
-      <c r="G23" s="14">
-        <v>45179.0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="9">
+        <v>45179</v>
+      </c>
+      <c r="G24" s="9">
+        <v>45179</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="17">
+        <v>45160</v>
+      </c>
+      <c r="G25" s="18">
+        <v>45179</v>
+      </c>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="9">
+        <v>45180</v>
+      </c>
+      <c r="G27" s="9">
+        <v>45187</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="9">
+        <v>45180</v>
+      </c>
+      <c r="G28" s="9">
+        <v>45187</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="9">
+        <v>45180</v>
+      </c>
+      <c r="G29" s="9">
+        <v>45187</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="9">
+        <v>45180</v>
+      </c>
+      <c r="G30" s="9">
+        <v>45187</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="9">
+        <v>45180</v>
+      </c>
+      <c r="G31" s="9">
+        <v>45187</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="9">
+        <v>45180</v>
+      </c>
+      <c r="G32" s="9">
+        <v>45187</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="9">
+        <v>45180</v>
+      </c>
+      <c r="G33" s="9">
+        <v>45187</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B34" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="12">
-        <v>45179.0</v>
-      </c>
-      <c r="G24" s="12">
-        <v>45179.0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="20">
-        <v>45160.0</v>
-      </c>
-      <c r="G25" s="21">
-        <v>45179.0</v>
-      </c>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="12">
-        <v>45180.0</v>
-      </c>
-      <c r="G27" s="12">
-        <v>45187.0</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="12">
-        <v>45180.0</v>
-      </c>
-      <c r="G28" s="12">
-        <v>45187.0</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="12">
-        <v>45180.0</v>
-      </c>
-      <c r="G29" s="12">
-        <v>45187.0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="F34" s="9">
+        <v>45180</v>
+      </c>
+      <c r="G34" s="9">
+        <v>45187</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B36" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="12">
-        <v>45180.0</v>
-      </c>
-      <c r="G30" s="12">
-        <v>45187.0</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="12">
-        <v>45180.0</v>
-      </c>
-      <c r="G31" s="12">
-        <v>45187.0</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="12">
-        <v>45180.0</v>
-      </c>
-      <c r="G32" s="12">
-        <v>45187.0</v>
-      </c>
-      <c r="H32" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="12">
-        <v>45180.0</v>
-      </c>
-      <c r="G33" s="12">
-        <v>45187.0</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="12">
-        <v>45180.0</v>
-      </c>
-      <c r="G34" s="12">
-        <v>45187.0</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="F36" s="9">
+        <v>45188</v>
+      </c>
+      <c r="G36" s="11">
+        <v>45221</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B37" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="12">
-        <v>45188.0</v>
-      </c>
-      <c r="G36" s="14">
-        <v>45221.0</v>
-      </c>
-      <c r="H36" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="E37" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="9">
+        <v>45188</v>
+      </c>
+      <c r="G37" s="11">
+        <v>45221</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B38" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="12">
-        <v>45188.0</v>
-      </c>
-      <c r="G37" s="14">
-        <v>45221.0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="E38" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="9">
+        <v>45188</v>
+      </c>
+      <c r="G38" s="11">
+        <v>45221</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B39" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="12">
-        <v>45188.0</v>
-      </c>
-      <c r="G38" s="14">
-        <v>45221.0</v>
-      </c>
-      <c r="H38" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="E39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="9">
+        <v>45188</v>
+      </c>
+      <c r="G39" s="11">
+        <v>45221</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B40" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="12">
-        <v>45188.0</v>
-      </c>
-      <c r="G39" s="14">
-        <v>45221.0</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="9">
+        <v>45188</v>
+      </c>
+      <c r="G40" s="11">
+        <v>45221</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B41" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="12">
-        <v>45188.0</v>
-      </c>
-      <c r="G40" s="14">
-        <v>45221.0</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="10" t="s">
+      <c r="C41" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="E41" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="9"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B42" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="23" t="s">
+      <c r="C42" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="E42" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="F42" s="9">
+        <v>45188</v>
+      </c>
+      <c r="G42" s="11">
+        <v>45221</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B43" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F42" s="12">
-        <v>45188.0</v>
-      </c>
-      <c r="G42" s="14">
-        <v>45221.0</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="23" t="s">
+      <c r="C43" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="E43" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="11">
+        <v>45221</v>
+      </c>
+      <c r="G43" s="11">
+        <v>45221</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B44" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E43" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="14">
-        <v>45221.0</v>
-      </c>
-      <c r="G43" s="14">
-        <v>45221.0</v>
-      </c>
-      <c r="H43" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="23" t="s">
+      <c r="C44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="11">
+        <v>45222</v>
+      </c>
+      <c r="G44" s="11">
+        <v>45222</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B45" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" s="14">
-        <v>45222.0</v>
-      </c>
-      <c r="G44" s="14">
-        <v>45222.0</v>
-      </c>
-      <c r="H44" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="17" t="s">
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="18">
+        <v>45222</v>
+      </c>
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B46" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="21">
-        <v>45222.0</v>
-      </c>
-      <c r="H45" s="21"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B47" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="D47" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="E47" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="11">
+        <v>45223</v>
+      </c>
+      <c r="G47" s="11">
+        <v>45242</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B48" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F47" s="14">
-        <v>45223.0</v>
-      </c>
-      <c r="G47" s="14">
-        <v>45242.0</v>
-      </c>
-      <c r="H47" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="E48" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="11">
+        <v>45223</v>
+      </c>
+      <c r="G48" s="11">
+        <v>45242</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B49" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="C49" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" s="11">
+        <v>45223</v>
+      </c>
+      <c r="G49" s="11">
+        <v>45242</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B50" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="11">
+        <v>45223</v>
+      </c>
+      <c r="G50" s="11">
+        <v>45242</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B51" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B52" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="11">
+        <v>45243</v>
+      </c>
+      <c r="G52" s="11">
+        <v>45249</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B53" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="14">
-        <v>45223.0</v>
-      </c>
-      <c r="G48" s="14">
-        <v>45242.0</v>
-      </c>
-      <c r="H48" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="14">
-        <v>45223.0</v>
-      </c>
-      <c r="G49" s="14">
-        <v>45242.0</v>
-      </c>
-      <c r="H49" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50" s="14">
-        <v>45223.0</v>
-      </c>
-      <c r="G50" s="14">
-        <v>45242.0</v>
-      </c>
-      <c r="H50" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" s="11" t="s">
+      <c r="C53" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F52" s="14">
-        <v>45243.0</v>
-      </c>
-      <c r="G52" s="14">
-        <v>45249.0</v>
-      </c>
-      <c r="H52" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="6" t="s">
+      <c r="F53" s="11">
+        <v>45243</v>
+      </c>
+      <c r="G53" s="11">
+        <v>45249</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B54" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F53" s="14">
-        <v>45243.0</v>
-      </c>
-      <c r="G53" s="14">
-        <v>45249.0</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="15" t="s">
+      <c r="C54" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="E54" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" s="11">
+        <v>45247</v>
+      </c>
+      <c r="G54" s="11">
+        <v>45248</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B55" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E54" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F54" s="14">
-        <v>45247.0</v>
-      </c>
-      <c r="G54" s="14">
-        <v>45248.0</v>
-      </c>
-      <c r="H54" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="15" t="s">
+      <c r="C55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="11">
+        <v>45250</v>
+      </c>
+      <c r="G55" s="11">
+        <v>45250</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B56" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" s="14">
-        <v>45250.0</v>
-      </c>
-      <c r="G55" s="14">
-        <v>45250.0</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="21">
-        <v>45250.0</v>
-      </c>
-      <c r="H56" s="21"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="18">
+        <v>45250</v>
+      </c>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+    </row>
+    <row r="58" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+    </row>
+    <row r="59" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+    </row>
+    <row r="60" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+    </row>
+    <row r="61" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+    </row>
+    <row r="62" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+    </row>
+    <row r="63" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+    </row>
+    <row r="66" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+    </row>
+    <row r="67" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+    </row>
+    <row r="68" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+    </row>
+    <row r="70" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+    </row>
+    <row r="73" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+    </row>
+    <row r="74" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="75" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="76" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="77" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="78" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="79" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="80" spans="2:8" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -3407,373 +3391,373 @@
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B4:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="39.86"/>
-    <col customWidth="1" min="3" max="3" width="51.43"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4">
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="2:3" ht="15" customHeight="1">
+      <c r="B4" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="48"/>
+    </row>
+    <row r="5" spans="2:3" ht="15" customHeight="1">
+      <c r="B5" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="31"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="32" t="s">
+      <c r="C5" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="32" t="s">
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="27" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="33" t="s">
+      <c r="C6" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="34" t="s">
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="27" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="33" t="s">
+      <c r="C7" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="34" t="s">
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="27" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="33" t="s">
+      <c r="C8" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="34" t="s">
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="27" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="35" t="s">
+      <c r="C9" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="34" t="s">
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="27" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="33" t="s">
+      <c r="C10" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="34" t="s">
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="27" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="33" t="s">
+      <c r="C11" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="34" t="s">
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="27" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="33" t="s">
+      <c r="C12" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B4:C4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="31.86"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="41" t="s">
+      <c r="B2" s="35">
+        <v>45152</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="42">
-        <v>45152.0</v>
-      </c>
-      <c r="C2" s="43" t="s">
+      <c r="D2" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="40" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="34" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="41" t="s">
+      <c r="B3" s="35">
+        <f t="shared" ref="B3:B17" si="0">B2+7</f>
+        <v>45159</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="42">
-        <f t="shared" ref="B3:B17" si="1">B2+7</f>
-        <v>45159</v>
-      </c>
-      <c r="C3" s="43" t="s">
+      <c r="D3" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="40" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="34" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="41" t="s">
+      <c r="B4" s="35">
+        <f t="shared" si="0"/>
+        <v>45166</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="42">
-        <f t="shared" si="1"/>
-        <v>45166</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="40" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="44" t="s">
+      <c r="B5" s="35">
+        <f t="shared" si="0"/>
+        <v>45173</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="42">
-        <f t="shared" si="1"/>
-        <v>45173</v>
-      </c>
-      <c r="C5" s="45" t="s">
+      <c r="D5" s="33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="44" t="s">
+      <c r="B6" s="35">
+        <f t="shared" si="0"/>
+        <v>45180</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="42">
-        <f t="shared" si="1"/>
-        <v>45180</v>
-      </c>
-      <c r="C6" s="46" t="s">
+      <c r="D6" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="47" t="s">
+      <c r="F6" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="G6" s="48"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="41" t="s">
+      <c r="B7" s="35">
+        <f t="shared" si="0"/>
+        <v>45187</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="42">
-        <f t="shared" si="1"/>
-        <v>45187</v>
-      </c>
-      <c r="C7" s="45" t="s">
+      <c r="D7" s="33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="41" t="s">
+      <c r="B8" s="35">
+        <f t="shared" si="0"/>
+        <v>45194</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="42">
-        <f t="shared" si="1"/>
-        <v>45194</v>
-      </c>
-      <c r="C8" s="45" t="s">
+      <c r="D8" s="33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="40" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="49" t="s">
+      <c r="B9" s="35">
+        <f t="shared" si="0"/>
+        <v>45201</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="B9" s="42">
-        <f t="shared" si="1"/>
-        <v>45201</v>
-      </c>
-      <c r="C9" s="50" t="s">
+      <c r="D9" s="33"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="40"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="41" t="s">
+      <c r="B10" s="35">
+        <f t="shared" si="0"/>
+        <v>45208</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B10" s="42">
-        <f t="shared" si="1"/>
-        <v>45208</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="40" t="s">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="34" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="41" t="s">
+      <c r="B11" s="35">
+        <f t="shared" si="0"/>
+        <v>45215</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="B11" s="42">
-        <f t="shared" si="1"/>
-        <v>45215</v>
-      </c>
-      <c r="C11" s="45" t="s">
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="40"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="41" t="s">
+      <c r="B12" s="35">
+        <f t="shared" si="0"/>
+        <v>45222</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="B12" s="42">
-        <f t="shared" si="1"/>
-        <v>45222</v>
-      </c>
-      <c r="C12" s="45" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="47" t="s">
+      <c r="F12" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="F12" s="47" t="s">
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="34" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="41" t="s">
+      <c r="B13" s="35">
+        <f t="shared" si="0"/>
+        <v>45229</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="42">
-        <f t="shared" si="1"/>
-        <v>45229</v>
-      </c>
-      <c r="C13" s="46" t="s">
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="40"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="41" t="s">
+      <c r="B14" s="35">
+        <f t="shared" si="0"/>
+        <v>45236</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="B14" s="42">
-        <f t="shared" si="1"/>
-        <v>45236</v>
-      </c>
-      <c r="C14" s="45" t="s">
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="40"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="41" t="s">
+      <c r="B15" s="35">
+        <f t="shared" si="0"/>
+        <v>45243</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="42">
-        <f t="shared" si="1"/>
-        <v>45243</v>
-      </c>
-      <c r="C15" s="45" t="s">
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="40"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="51" t="s">
+      <c r="B16" s="35">
+        <f t="shared" si="0"/>
+        <v>45250</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="B16" s="42">
-        <f t="shared" si="1"/>
-        <v>45250</v>
-      </c>
-      <c r="C16" s="52" t="s">
+      <c r="D16" s="33"/>
+      <c r="E16" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="47" t="s">
+      <c r="F16" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="F16" s="47" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="41" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="49" t="s">
+      <c r="B17" s="35">
+        <f t="shared" si="0"/>
+        <v>45257</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="B17" s="42">
-        <f t="shared" si="1"/>
-        <v>45257</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" s="40"/>
+      <c r="D17" s="33"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>